--- a/tests/Gauges/GroupTagTests_Simple_WithOutsideLink.xlsx
+++ b/tests/Gauges/GroupTagTests_Simple_WithOutsideLink.xlsx
@@ -11,6 +11,7 @@
   </x:sheets>
   <x:definedNames>
     <x:definedName name="Orders">Sheet1!$A$12:$J$24</x:definedName>
+    <x:definedName name="OrdersRange2">Sheet1!#REF!</x:definedName>
     <x:definedName name="Orders_tpl">Sheet1!$A$12:$J$24</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
@@ -344,47 +345,44 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="32">
+  <x:cellStyleXfs count="31">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -415,6 +413,21 @@
     <x:xf numFmtId="4" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="12" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -424,23 +437,8 @@
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="12" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="93">
+  <x:cellXfs count="83">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment vertical="center"/>
@@ -565,8 +563,32 @@
       <x:alignment vertical="center"/>
     </x:xf>
     <x:xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <x:xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -577,70 +599,6 @@
       <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="2" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -685,6 +643,34 @@
       <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -699,34 +685,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -736,10 +694,6 @@
   <x:dxfs count="1">
     <x:dxf>
       <x:font>
-        <x:b val="0"/>
-        <x:i val="0"/>
-        <x:condense val="0"/>
-        <x:extend val="0"/>
         <x:color indexed="30"/>
       </x:font>
     </x:dxf>
@@ -824,11 +778,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>373380</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1695450" cy="609600"/>
+    <xdr:ext cx="1699260" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Рисунок 2"/>
@@ -845,7 +799,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1695450" cy="609600"/>
+          <a:ext cx="1699260" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
       </xdr:spPr>
@@ -1217,563 +1171,488 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="2"/>
   <x:cols>
-    <x:col min="1" max="1" width="2.832031" style="52" customWidth="1"/>
-    <x:col min="2" max="2" width="9" style="52" customWidth="1"/>
-    <x:col min="3" max="3" width="9.664062" style="52" customWidth="1"/>
-    <x:col min="4" max="4" width="9.140625" style="52" customWidth="1"/>
-    <x:col min="5" max="5" width="6.164062" style="52" customWidth="1"/>
-    <x:col min="6" max="6" width="6.832031" style="52" customWidth="1"/>
-    <x:col min="7" max="7" width="8.5" style="52" customWidth="1"/>
-    <x:col min="8" max="8" width="9.164062" style="52" customWidth="1"/>
-    <x:col min="9" max="9" width="7.332031" style="52" customWidth="1"/>
-    <x:col min="10" max="10" width="11.5" style="52" customWidth="1"/>
+    <x:col min="1" max="1" width="2.832031" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.664062" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="6.164062" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="6.832031" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="8.5" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="9.164062" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="7.332031" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="11.5" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" customFormat="1" ht="51" customHeight="1">
-      <x:c r="A1" s="52" t="s"/>
-      <x:c r="B1" s="55" t="s">
+      <x:c r="B1" s="52" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C1" s="56" t="s"/>
-      <x:c r="D1" s="56" t="s"/>
-      <x:c r="E1" s="56" t="s"/>
-      <x:c r="F1" s="56" t="s"/>
-      <x:c r="G1" s="56" t="s"/>
-      <x:c r="H1" s="56" t="s"/>
-      <x:c r="I1" s="56" t="s"/>
-      <x:c r="J1" s="56" t="s"/>
+      <x:c r="C1" s="53" t="s"/>
+      <x:c r="D1" s="53" t="s"/>
+      <x:c r="E1" s="53" t="s"/>
+      <x:c r="F1" s="53" t="s"/>
+      <x:c r="G1" s="53" t="s"/>
+      <x:c r="H1" s="53" t="s"/>
+      <x:c r="I1" s="53" t="s"/>
+      <x:c r="J1" s="53" t="s"/>
     </x:row>
     <x:row r="2" spans="1:10" customFormat="1" ht="12.75" customHeight="1">
-      <x:c r="A2" s="52" t="s"/>
-      <x:c r="B2" s="57" t="s"/>
-      <x:c r="C2" s="57" t="s"/>
-      <x:c r="D2" s="57" t="s"/>
-      <x:c r="E2" s="57" t="s"/>
-      <x:c r="F2" s="57" t="s"/>
-      <x:c r="G2" s="57" t="s"/>
-      <x:c r="H2" s="57" t="s"/>
-      <x:c r="I2" s="57" t="s"/>
-      <x:c r="J2" s="52" t="s"/>
+      <x:c r="B2" s="54" t="s"/>
+      <x:c r="C2" s="54" t="s"/>
+      <x:c r="D2" s="54" t="s"/>
+      <x:c r="E2" s="54" t="s"/>
+      <x:c r="F2" s="54" t="s"/>
+      <x:c r="G2" s="54" t="s"/>
+      <x:c r="H2" s="54" t="s"/>
+      <x:c r="I2" s="54" t="s"/>
     </x:row>
     <x:row r="3" spans="1:10" customFormat="1" ht="18" customHeight="1">
-      <x:c r="A3" s="58" t="s"/>
-      <x:c r="B3" s="59" t="s">
+      <x:c r="A3" s="55" t="s"/>
+      <x:c r="B3" s="56" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="60" t="s">
+      <x:c r="C3" s="37" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D3" s="61" t="s"/>
-      <x:c r="E3" s="61" t="s"/>
-      <x:c r="F3" s="61" t="s"/>
-      <x:c r="G3" s="62" t="s"/>
-      <x:c r="H3" s="62" t="s"/>
-      <x:c r="I3" s="62" t="s"/>
-      <x:c r="J3" s="63" t="s"/>
+      <x:c r="D3" s="18" t="s"/>
+      <x:c r="E3" s="18" t="s"/>
+      <x:c r="F3" s="18" t="s"/>
+      <x:c r="G3" s="14" t="s"/>
+      <x:c r="H3" s="14" t="s"/>
+      <x:c r="I3" s="14" t="s"/>
+      <x:c r="J3" s="15" t="s"/>
     </x:row>
     <x:row r="4" spans="1:10">
-      <x:c r="A4" s="52" t="s"/>
-      <x:c r="B4" s="64" t="s"/>
-      <x:c r="C4" s="52" t="s"/>
-      <x:c r="D4" s="52" t="s"/>
-      <x:c r="E4" s="52" t="s"/>
-      <x:c r="F4" s="52" t="s"/>
-      <x:c r="G4" s="52" t="s"/>
-      <x:c r="H4" s="52" t="s"/>
-      <x:c r="I4" s="52" t="s"/>
-      <x:c r="J4" s="52" t="s"/>
+      <x:c r="B4" s="57" t="s"/>
     </x:row>
     <x:row r="5" spans="1:10">
-      <x:c r="A5" s="52" t="s"/>
-      <x:c r="B5" s="59" t="s">
+      <x:c r="B5" s="56" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C5" s="52" t="s"/>
     </x:row>
     <x:row r="6" spans="1:10" customFormat="1" ht="12" customHeight="1">
-      <x:c r="A6" s="52" t="s"/>
-      <x:c r="B6" s="65" t="s">
+      <x:c r="B6" s="38" t="s">
         <x:f>"632-1 Third Frydenhoj"&amp;" "&amp;""</x:f>
       </x:c>
-      <x:c r="C6" s="66" t="s"/>
-      <x:c r="D6" s="66" t="s"/>
-      <x:c r="E6" s="66" t="s"/>
-      <x:c r="F6" s="66" t="s"/>
-      <x:c r="G6" s="66" t="s"/>
-      <x:c r="H6" s="67" t="s"/>
-      <x:c r="I6" s="68" t="s"/>
-      <x:c r="J6" s="69" t="s"/>
+      <x:c r="C6" s="10" t="s"/>
+      <x:c r="D6" s="10" t="s"/>
+      <x:c r="E6" s="10" t="s"/>
+      <x:c r="F6" s="10" t="s"/>
+      <x:c r="G6" s="10" t="s"/>
+      <x:c r="H6" s="58" t="s"/>
+      <x:c r="I6" s="12" t="s"/>
+      <x:c r="J6" s="13" t="s"/>
     </x:row>
     <x:row r="7" spans="1:10" customFormat="1" ht="12" customHeight="1">
-      <x:c r="A7" s="52" t="s"/>
-      <x:c r="D7" s="53" t="s"/>
-      <x:c r="E7" s="53" t="s"/>
-      <x:c r="F7" s="53" t="s"/>
-      <x:c r="G7" s="53" t="s"/>
-      <x:c r="H7" s="54" t="s"/>
-      <x:c r="I7" s="52" t="s"/>
-      <x:c r="J7" s="52" t="s"/>
+      <x:c r="D7" s="59" t="s"/>
+      <x:c r="E7" s="59" t="s"/>
+      <x:c r="F7" s="59" t="s"/>
+      <x:c r="G7" s="59" t="s"/>
+      <x:c r="H7" s="60" t="s"/>
     </x:row>
     <x:row r="8" spans="1:10">
-      <x:c r="A8" s="52" t="s"/>
-      <x:c r="B8" s="59" t="s">
+      <x:c r="B8" s="56" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E8" s="59" t="s">
+      <x:c r="E8" s="56" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G8" s="59" t="s">
+      <x:c r="G8" s="56" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="I8" s="59" t="s">
+      <x:c r="I8" s="56" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" customFormat="1" ht="12" customHeight="1">
-      <x:c r="A9" s="52" t="s"/>
-      <x:c r="B9" s="70" t="s">
+      <x:c r="B9" s="41" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C9" s="66" t="s"/>
-      <x:c r="D9" s="66" t="s"/>
-      <x:c r="E9" s="70" t="s">
+      <x:c r="C9" s="10" t="s"/>
+      <x:c r="D9" s="10" t="s"/>
+      <x:c r="E9" s="41" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="F9" s="71" t="s"/>
-      <x:c r="G9" s="70" t="s">
+      <x:c r="F9" s="61" t="s"/>
+      <x:c r="G9" s="41" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="H9" s="71" t="s"/>
-      <x:c r="I9" s="70" t="s">
+      <x:c r="H9" s="61" t="s"/>
+      <x:c r="I9" s="41" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="J9" s="71" t="s"/>
+      <x:c r="J9" s="61" t="s"/>
     </x:row>
     <x:row r="10" spans="1:10" customFormat="1" ht="12" customHeight="1">
-      <x:c r="A10" s="52" t="s"/>
-      <x:c r="B10" s="59" t="s">
+      <x:c r="B10" s="56" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C10" s="72" t="str">
+      <x:c r="C10" s="62" t="str">
         <x:f>J24</x:f>
       </x:c>
-      <x:c r="D10" s="53" t="s"/>
-      <x:c r="E10" s="73" t="s"/>
-      <x:c r="F10" s="53" t="s"/>
-      <x:c r="G10" s="73" t="s"/>
-      <x:c r="H10" s="53" t="s"/>
-      <x:c r="I10" s="73" t="s"/>
-      <x:c r="J10" s="53" t="s"/>
+      <x:c r="D10" s="59" t="s"/>
+      <x:c r="E10" s="63" t="s"/>
+      <x:c r="F10" s="59" t="s"/>
+      <x:c r="G10" s="63" t="s"/>
+      <x:c r="H10" s="59" t="s"/>
+      <x:c r="I10" s="63" t="s"/>
+      <x:c r="J10" s="59" t="s"/>
     </x:row>
     <x:row r="11" spans="1:10" customFormat="1" ht="22.5" customHeight="1">
-      <x:c r="A11" s="52" t="s"/>
-      <x:c r="B11" s="74" t="s">
+      <x:c r="B11" s="64" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C11" s="75" t="s">
+      <x:c r="C11" s="65" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D11" s="74" t="s">
+      <x:c r="D11" s="64" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="E11" s="74" t="s">
+      <x:c r="E11" s="64" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="F11" s="74" t="s">
+      <x:c r="F11" s="64" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="G11" s="76" t="s">
+      <x:c r="G11" s="66" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="H11" s="77" t="s">
+      <x:c r="H11" s="67" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="I11" s="77" t="s">
+      <x:c r="I11" s="67" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="J11" s="77" t="s">
+      <x:c r="J11" s="67" t="s">
         <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" outlineLevel="2">
-      <x:c r="A12" s="52" t="s"/>
-      <x:c r="B12" s="78" t="n">
+      <x:c r="B12" s="68" t="n">
         <x:v>1072</x:v>
       </x:c>
-      <x:c r="C12" s="79">
+      <x:c r="C12" s="69">
         <x:v>32609</x:v>
       </x:c>
-      <x:c r="D12" s="79">
+      <x:c r="D12" s="69">
         <x:v>32610</x:v>
       </x:c>
-      <x:c r="E12" s="80" t="s"/>
-      <x:c r="F12" s="80" t="s"/>
-      <x:c r="G12" s="80" t="s">
+      <x:c r="E12" s="70" t="s"/>
+      <x:c r="F12" s="70" t="s"/>
+      <x:c r="G12" s="70" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="H12" s="81" t="n">
+      <x:c r="H12" s="71" t="n">
         <x:v>3596</x:v>
       </x:c>
-      <x:c r="I12" s="81" t="n">
+      <x:c r="I12" s="71" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J12" s="81" t="n">
+      <x:c r="J12" s="71" t="n">
         <x:v>3596</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" outlineLevel="2">
-      <x:c r="A13" s="52" t="s"/>
-      <x:c r="B13" s="78" t="n">
+      <x:c r="B13" s="68" t="n">
         <x:v>1059</x:v>
       </x:c>
-      <x:c r="C13" s="79">
+      <x:c r="C13" s="69">
         <x:v>32563</x:v>
       </x:c>
-      <x:c r="D13" s="79">
+      <x:c r="D13" s="69">
         <x:v>32564</x:v>
       </x:c>
-      <x:c r="E13" s="80" t="s">
+      <x:c r="E13" s="70" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F13" s="80" t="s">
+      <x:c r="F13" s="70" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G13" s="80" t="s">
+      <x:c r="G13" s="70" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="H13" s="81" t="n">
+      <x:c r="H13" s="71" t="n">
         <x:v>2150</x:v>
       </x:c>
-      <x:c r="I13" s="81" t="n">
+      <x:c r="I13" s="71" t="n">
         <x:v>8.5</x:v>
       </x:c>
-      <x:c r="J13" s="81" t="n">
+      <x:c r="J13" s="71" t="n">
         <x:v>2150</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:10" outlineLevel="1">
-      <x:c r="A14" s="52" t="s"/>
-      <x:c r="B14" s="86" t="s"/>
-      <x:c r="C14" s="87" t="s"/>
-      <x:c r="D14" s="88" t="s"/>
-      <x:c r="E14" s="87" t="s"/>
-      <x:c r="F14" s="89" t="s"/>
-      <x:c r="G14" s="90" t="s">
+      <x:c r="B14" s="72" t="s"/>
+      <x:c r="C14" s="73" t="s"/>
+      <x:c r="D14" s="74" t="s"/>
+      <x:c r="E14" s="73" t="s"/>
+      <x:c r="F14" s="75" t="s"/>
+      <x:c r="G14" s="76" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="H14" s="91">
+      <x:c r="H14" s="77">
         <x:f>Subtotal(9,H12:H13)</x:f>
       </x:c>
-      <x:c r="I14" s="92" t="s"/>
-      <x:c r="J14" s="91">
+      <x:c r="I14" s="78" t="s"/>
+      <x:c r="J14" s="77">
         <x:f>Subtotal(9,J12:J13)</x:f>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:10" outlineLevel="2">
-      <x:c r="A15" s="52" t="s"/>
-      <x:c r="B15" s="78" t="n">
+      <x:c r="B15" s="68" t="n">
         <x:v>1280</x:v>
       </x:c>
-      <x:c r="C15" s="79">
+      <x:c r="C15" s="69">
         <x:v>34694</x:v>
       </x:c>
-      <x:c r="D15" s="79">
+      <x:c r="D15" s="69">
         <x:v>34694</x:v>
       </x:c>
-      <x:c r="E15" s="80" t="s"/>
-      <x:c r="F15" s="80" t="s"/>
-      <x:c r="G15" s="80" t="s">
+      <x:c r="E15" s="70" t="s"/>
+      <x:c r="F15" s="70" t="s"/>
+      <x:c r="G15" s="70" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="H15" s="81" t="n">
+      <x:c r="H15" s="71" t="n">
         <x:v>4317.75</x:v>
       </x:c>
-      <x:c r="I15" s="81" t="n">
+      <x:c r="I15" s="71" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J15" s="81" t="n">
+      <x:c r="J15" s="71" t="n">
         <x:v>4317.75</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10" customFormat="1" ht="12" customHeight="1" outlineLevel="2">
-      <x:c r="A16" s="52" t="s"/>
-      <x:c r="B16" s="78" t="n">
+      <x:c r="B16" s="68" t="n">
         <x:v>1080</x:v>
       </x:c>
-      <x:c r="C16" s="79">
+      <x:c r="C16" s="69">
         <x:v>32633</x:v>
       </x:c>
-      <x:c r="D16" s="79">
+      <x:c r="D16" s="69">
         <x:v>32634</x:v>
       </x:c>
-      <x:c r="E16" s="80" t="s"/>
-      <x:c r="F16" s="80" t="s"/>
-      <x:c r="G16" s="80" t="s">
+      <x:c r="E16" s="70" t="s"/>
+      <x:c r="F16" s="70" t="s"/>
+      <x:c r="G16" s="70" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="H16" s="81" t="n">
+      <x:c r="H16" s="71" t="n">
         <x:v>9634</x:v>
       </x:c>
-      <x:c r="I16" s="81" t="n">
+      <x:c r="I16" s="71" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J16" s="81" t="n">
+      <x:c r="J16" s="71" t="n">
         <x:v>9634</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10" outlineLevel="2">
-      <x:c r="A17" s="52" t="s"/>
-      <x:c r="B17" s="78" t="n">
+      <x:c r="B17" s="68" t="n">
         <x:v>1180</x:v>
       </x:c>
-      <x:c r="C17" s="79">
+      <x:c r="C17" s="69">
         <x:v>34552</x:v>
       </x:c>
-      <x:c r="D17" s="79">
+      <x:c r="D17" s="69">
         <x:v>34552</x:v>
       </x:c>
-      <x:c r="E17" s="80" t="s"/>
-      <x:c r="F17" s="80" t="s"/>
-      <x:c r="G17" s="80" t="s">
+      <x:c r="E17" s="70" t="s"/>
+      <x:c r="F17" s="70" t="s"/>
+      <x:c r="G17" s="70" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="H17" s="81" t="n">
+      <x:c r="H17" s="71" t="n">
         <x:v>3640</x:v>
       </x:c>
-      <x:c r="I17" s="81" t="n">
+      <x:c r="I17" s="71" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J17" s="81" t="n">
+      <x:c r="J17" s="71" t="n">
         <x:v>3640</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:10" outlineLevel="1">
-      <x:c r="A18" s="52" t="s"/>
-      <x:c r="B18" s="86" t="s"/>
-      <x:c r="C18" s="87" t="s"/>
-      <x:c r="D18" s="88" t="s"/>
-      <x:c r="E18" s="87" t="s"/>
-      <x:c r="F18" s="89" t="s"/>
-      <x:c r="G18" s="90" t="s">
+      <x:c r="B18" s="72" t="s"/>
+      <x:c r="C18" s="73" t="s"/>
+      <x:c r="D18" s="74" t="s"/>
+      <x:c r="E18" s="73" t="s"/>
+      <x:c r="F18" s="75" t="s"/>
+      <x:c r="G18" s="76" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="H18" s="91">
+      <x:c r="H18" s="77">
         <x:f>Subtotal(9,H15:H17)</x:f>
       </x:c>
-      <x:c r="I18" s="92" t="s"/>
-      <x:c r="J18" s="91">
+      <x:c r="I18" s="78" t="s"/>
+      <x:c r="J18" s="77">
         <x:f>Subtotal(9,J15:J17)</x:f>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:10" outlineLevel="2">
-      <x:c r="A19" s="52" t="s"/>
-      <x:c r="B19" s="78" t="n">
+      <x:c r="B19" s="68" t="n">
         <x:v>1105</x:v>
       </x:c>
-      <x:c r="C19" s="79">
+      <x:c r="C19" s="69">
         <x:v>33806</x:v>
       </x:c>
-      <x:c r="D19" s="79">
+      <x:c r="D19" s="69">
         <x:v>33806</x:v>
       </x:c>
-      <x:c r="E19" s="80" t="s"/>
-      <x:c r="F19" s="80" t="s"/>
-      <x:c r="G19" s="80" t="s">
+      <x:c r="E19" s="70" t="s"/>
+      <x:c r="F19" s="70" t="s"/>
+      <x:c r="G19" s="70" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="H19" s="81" t="n">
+      <x:c r="H19" s="71" t="n">
         <x:v>31219.95</x:v>
       </x:c>
-      <x:c r="I19" s="81" t="n">
+      <x:c r="I19" s="71" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J19" s="81" t="n">
+      <x:c r="J19" s="71" t="n">
         <x:v>31219.95</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" outlineLevel="2">
-      <x:c r="A20" s="52" t="s"/>
-      <x:c r="B20" s="78" t="n">
+      <x:c r="B20" s="68" t="n">
         <x:v>1266</x:v>
       </x:c>
-      <x:c r="C20" s="79">
+      <x:c r="C20" s="69">
         <x:v>34683</x:v>
       </x:c>
-      <x:c r="D20" s="79">
+      <x:c r="D20" s="69">
         <x:v>34683</x:v>
       </x:c>
-      <x:c r="E20" s="80" t="s"/>
-      <x:c r="F20" s="80" t="s"/>
-      <x:c r="G20" s="80" t="s">
+      <x:c r="E20" s="70" t="s"/>
+      <x:c r="F20" s="70" t="s"/>
+      <x:c r="G20" s="70" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="H20" s="81" t="n">
+      <x:c r="H20" s="71" t="n">
         <x:v>6935</x:v>
       </x:c>
-      <x:c r="I20" s="81" t="n">
+      <x:c r="I20" s="71" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J20" s="81" t="n">
+      <x:c r="J20" s="71" t="n">
         <x:v>6935</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:10" outlineLevel="2">
-      <x:c r="A21" s="52" t="s"/>
-      <x:c r="B21" s="78" t="n">
+      <x:c r="B21" s="68" t="n">
         <x:v>1005</x:v>
       </x:c>
-      <x:c r="C21" s="79">
+      <x:c r="C21" s="69">
         <x:v>32253</x:v>
       </x:c>
-      <x:c r="D21" s="79">
+      <x:c r="D21" s="69">
         <x:v>32163</x:v>
       </x:c>
-      <x:c r="E21" s="80" t="s"/>
-      <x:c r="F21" s="80" t="s"/>
-      <x:c r="G21" s="80" t="s">
+      <x:c r="E21" s="70" t="s"/>
+      <x:c r="F21" s="70" t="s"/>
+      <x:c r="G21" s="70" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="H21" s="81" t="n">
+      <x:c r="H21" s="71" t="n">
         <x:v>4807</x:v>
       </x:c>
-      <x:c r="I21" s="81" t="n">
+      <x:c r="I21" s="71" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J21" s="81" t="n">
+      <x:c r="J21" s="71" t="n">
         <x:v>4807</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:10" outlineLevel="2">
-      <x:c r="A22" s="52" t="s"/>
-      <x:c r="B22" s="78" t="n">
+      <x:c r="B22" s="68" t="n">
         <x:v>1305</x:v>
       </x:c>
-      <x:c r="C22" s="79">
+      <x:c r="C22" s="69">
         <x:v>34719</x:v>
       </x:c>
-      <x:c r="D22" s="79">
+      <x:c r="D22" s="69">
         <x:v>34719</x:v>
       </x:c>
-      <x:c r="E22" s="80" t="s"/>
-      <x:c r="F22" s="80" t="s"/>
-      <x:c r="G22" s="80" t="s">
+      <x:c r="E22" s="70" t="s"/>
+      <x:c r="F22" s="70" t="s"/>
+      <x:c r="G22" s="70" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="H22" s="81" t="n">
+      <x:c r="H22" s="71" t="n">
         <x:v>3065</x:v>
       </x:c>
-      <x:c r="I22" s="81" t="n">
+      <x:c r="I22" s="71" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J22" s="81" t="n">
+      <x:c r="J22" s="71" t="n">
         <x:v>3065</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:10" outlineLevel="1">
-      <x:c r="A23" s="52" t="s"/>
-      <x:c r="B23" s="86" t="s"/>
-      <x:c r="C23" s="87" t="s"/>
-      <x:c r="D23" s="88" t="s"/>
-      <x:c r="E23" s="87" t="s"/>
-      <x:c r="F23" s="89" t="s"/>
-      <x:c r="G23" s="90" t="s">
+      <x:c r="B23" s="72" t="s"/>
+      <x:c r="C23" s="73" t="s"/>
+      <x:c r="D23" s="74" t="s"/>
+      <x:c r="E23" s="73" t="s"/>
+      <x:c r="F23" s="75" t="s"/>
+      <x:c r="G23" s="76" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="H23" s="91">
+      <x:c r="H23" s="77">
         <x:f>Subtotal(9,H19:H22)</x:f>
       </x:c>
-      <x:c r="I23" s="92" t="s"/>
-      <x:c r="J23" s="91">
+      <x:c r="I23" s="78" t="s"/>
+      <x:c r="J23" s="77">
         <x:f>Subtotal(9,J19:J22)</x:f>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:10">
-      <x:c r="A24" s="52" t="s"/>
-      <x:c r="B24" s="86" t="s">
+      <x:c r="B24" s="72" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C24" s="87" t="s"/>
-      <x:c r="D24" s="88" t="s"/>
-      <x:c r="E24" s="87" t="s"/>
-      <x:c r="F24" s="89" t="s"/>
-      <x:c r="G24" s="90" t="s"/>
-      <x:c r="H24" s="91">
+      <x:c r="C24" s="73" t="s"/>
+      <x:c r="D24" s="74" t="s"/>
+      <x:c r="E24" s="73" t="s"/>
+      <x:c r="F24" s="75" t="s"/>
+      <x:c r="G24" s="76" t="s"/>
+      <x:c r="H24" s="77">
         <x:f>Subtotal(9,H12:H22)</x:f>
       </x:c>
-      <x:c r="I24" s="92" t="s"/>
-      <x:c r="J24" s="91">
+      <x:c r="I24" s="78" t="s"/>
+      <x:c r="J24" s="77">
         <x:f>Subtotal(9,J12:J22)</x:f>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:10">
-      <x:c r="A25" s="52" t="s"/>
-      <x:c r="B25" s="52" t="s"/>
-      <x:c r="C25" s="82" t="s"/>
-      <x:c r="D25" s="52" t="s"/>
-      <x:c r="E25" s="52" t="s"/>
-      <x:c r="F25" s="52" t="s"/>
-      <x:c r="G25" s="58" t="s"/>
-      <x:c r="H25" s="52" t="s"/>
-      <x:c r="I25" s="52" t="s"/>
-      <x:c r="J25" s="83" t="s"/>
+      <x:c r="C25" s="79" t="s"/>
+      <x:c r="G25" s="55" t="s"/>
+      <x:c r="J25" s="80" t="s"/>
     </x:row>
     <x:row r="26" spans="1:10">
-      <x:c r="A26" s="52" t="s"/>
-      <x:c r="B26" s="59" t="s">
+      <x:c r="B26" s="56" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="E26" s="59" t="s">
+      <x:c r="E26" s="56" t="s">
         <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:10">
-      <x:c r="A27" s="52" t="s"/>
-      <x:c r="B27" s="84" t="s">
+      <x:c r="B27" s="81" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C27" s="66" t="s"/>
-      <x:c r="D27" s="66" t="s"/>
-      <x:c r="E27" s="84" t="s">
+      <x:c r="C27" s="10" t="s"/>
+      <x:c r="D27" s="10" t="s"/>
+      <x:c r="E27" s="81" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="F27" s="85" t="s"/>
-      <x:c r="J27" s="52" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:10">
-      <x:c r="G28" s="52" t="s"/>
-      <x:c r="H28" s="52" t="s"/>
-      <x:c r="I28" s="52" t="s"/>
+      <x:c r="F27" s="82" t="s"/>
     </x:row>
   </x:sheetData>
   <x:phoneticPr fontId="0" type="noConversion"/>
-  <x:conditionalFormatting sqref="B19:B22">
+  <x:conditionalFormatting sqref="B12:B13 E12:G13 B15:B17 E15:G17 B19:B22 E19:G22">
     <x:cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
-      <x:formula>$G19="Visa"</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="E19:G22">
-    <x:cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
-      <x:formula>$G19="Visa"</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="B12:B13">
-    <x:cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
       <x:formula>$G12="Visa"</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="E12:G13">
-    <x:cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
-      <x:formula>$G12="Visa"</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="B15:B17">
-    <x:cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1" operator="equal">
-      <x:formula>$G15="Visa"</x:formula>
-    </x:cfRule>
-  </x:conditionalFormatting>
-  <x:conditionalFormatting sqref="E15:G17">
-    <x:cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1" operator="equal">
-      <x:formula>$G15="Visa"</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/tests/Gauges/GroupTagTests_Simple_WithOutsideLink.xlsx
+++ b/tests/Gauges/GroupTagTests_Simple_WithOutsideLink.xlsx
@@ -11,14 +11,14 @@
   </x:sheets>
   <x:definedNames>
     <x:definedName name="Orders">Sheet1!$A$12:$J$24</x:definedName>
-    <x:definedName name="Orders_tpl">Sheet1!$A$20:$J$24</x:definedName>
+    <x:definedName name="Orders_tpl">Sheet1!$A$12:$J$24</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <x:si>
     <x:t>Subtotals in list range</x:t>
   </x:si>
@@ -51,6 +51,9 @@
   </x:si>
   <x:si>
     <x:t>US Virgin Islands</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00820</x:t>
   </x:si>
   <x:si>
     <x:t>Total</x:t>
@@ -400,6 +403,18 @@
     <x:xf numFmtId="0" fontId="13" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -407,18 +422,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -666,6 +669,22 @@
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -680,22 +699,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1341,15 +1344,15 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="H9" s="71" t="s"/>
-      <x:c r="I9" s="70" t="n">
-        <x:v>820</x:v>
+      <x:c r="I9" s="70" t="s">
+        <x:v>11</x:v>
       </x:c>
       <x:c r="J9" s="71" t="s"/>
     </x:row>
     <x:row r="10" spans="1:10" customFormat="1" ht="12" customHeight="1">
       <x:c r="A10" s="52" t="s"/>
       <x:c r="B10" s="59" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="72" t="str">
         <x:f>J24</x:f>
@@ -1365,86 +1368,86 @@
     <x:row r="11" spans="1:10" customFormat="1" ht="22.5" customHeight="1">
       <x:c r="A11" s="52" t="s"/>
       <x:c r="B11" s="74" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C11" s="75" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D11" s="74" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E11" s="74" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F11" s="74" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G11" s="76" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H11" s="77" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I11" s="77" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J11" s="77" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" outlineLevel="2">
       <x:c r="A12" s="52" t="s"/>
-      <x:c r="B12" s="82" t="n">
+      <x:c r="B12" s="78" t="n">
         <x:v>1072</x:v>
       </x:c>
-      <x:c r="C12" s="83">
+      <x:c r="C12" s="79">
         <x:v>32609</x:v>
       </x:c>
-      <x:c r="D12" s="83">
+      <x:c r="D12" s="79">
         <x:v>32610</x:v>
       </x:c>
-      <x:c r="E12" s="84" t="s"/>
-      <x:c r="F12" s="84" t="s"/>
-      <x:c r="G12" s="84" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="H12" s="85" t="n">
+      <x:c r="E12" s="80" t="s"/>
+      <x:c r="F12" s="80" t="s"/>
+      <x:c r="G12" s="80" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H12" s="81" t="n">
         <x:v>3596</x:v>
       </x:c>
-      <x:c r="I12" s="85" t="n">
+      <x:c r="I12" s="81" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J12" s="85" t="n">
+      <x:c r="J12" s="81" t="n">
         <x:v>3596</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10" outlineLevel="2">
       <x:c r="A13" s="52" t="s"/>
-      <x:c r="B13" s="82" t="n">
+      <x:c r="B13" s="78" t="n">
         <x:v>1059</x:v>
       </x:c>
-      <x:c r="C13" s="83">
+      <x:c r="C13" s="79">
         <x:v>32563</x:v>
       </x:c>
-      <x:c r="D13" s="83">
+      <x:c r="D13" s="79">
         <x:v>32564</x:v>
       </x:c>
-      <x:c r="E13" s="84" t="s">
+      <x:c r="E13" s="80" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F13" s="80" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G13" s="80" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="F13" s="84" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G13" s="84" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="H13" s="85" t="n">
+      <x:c r="H13" s="81" t="n">
         <x:v>2150</x:v>
       </x:c>
-      <x:c r="I13" s="85" t="n">
+      <x:c r="I13" s="81" t="n">
         <x:v>8.5</x:v>
       </x:c>
-      <x:c r="J13" s="85" t="n">
+      <x:c r="J13" s="81" t="n">
         <x:v>2150</x:v>
       </x:c>
     </x:row>
@@ -1456,7 +1459,7 @@
       <x:c r="E14" s="87" t="s"/>
       <x:c r="F14" s="89" t="s"/>
       <x:c r="G14" s="90" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H14" s="91">
         <x:f>Subtotal(9,H12:H13)</x:f>
@@ -1468,79 +1471,79 @@
     </x:row>
     <x:row r="15" spans="1:10" outlineLevel="2">
       <x:c r="A15" s="52" t="s"/>
-      <x:c r="B15" s="82" t="n">
+      <x:c r="B15" s="78" t="n">
         <x:v>1280</x:v>
       </x:c>
-      <x:c r="C15" s="83">
+      <x:c r="C15" s="79">
         <x:v>34694</x:v>
       </x:c>
-      <x:c r="D15" s="83">
+      <x:c r="D15" s="79">
         <x:v>34694</x:v>
       </x:c>
-      <x:c r="E15" s="84" t="s"/>
-      <x:c r="F15" s="84" t="s"/>
-      <x:c r="G15" s="84" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H15" s="85" t="n">
+      <x:c r="E15" s="80" t="s"/>
+      <x:c r="F15" s="80" t="s"/>
+      <x:c r="G15" s="80" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H15" s="81" t="n">
         <x:v>4317.75</x:v>
       </x:c>
-      <x:c r="I15" s="85" t="n">
+      <x:c r="I15" s="81" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J15" s="85" t="n">
+      <x:c r="J15" s="81" t="n">
         <x:v>4317.75</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10" customFormat="1" ht="12" customHeight="1" outlineLevel="2">
       <x:c r="A16" s="52" t="s"/>
-      <x:c r="B16" s="82" t="n">
+      <x:c r="B16" s="78" t="n">
         <x:v>1080</x:v>
       </x:c>
-      <x:c r="C16" s="83">
+      <x:c r="C16" s="79">
         <x:v>32633</x:v>
       </x:c>
-      <x:c r="D16" s="83">
+      <x:c r="D16" s="79">
         <x:v>32634</x:v>
       </x:c>
-      <x:c r="E16" s="84" t="s"/>
-      <x:c r="F16" s="84" t="s"/>
-      <x:c r="G16" s="84" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H16" s="85" t="n">
+      <x:c r="E16" s="80" t="s"/>
+      <x:c r="F16" s="80" t="s"/>
+      <x:c r="G16" s="80" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H16" s="81" t="n">
         <x:v>9634</x:v>
       </x:c>
-      <x:c r="I16" s="85" t="n">
+      <x:c r="I16" s="81" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J16" s="85" t="n">
+      <x:c r="J16" s="81" t="n">
         <x:v>9634</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:10" outlineLevel="2">
       <x:c r="A17" s="52" t="s"/>
-      <x:c r="B17" s="82" t="n">
+      <x:c r="B17" s="78" t="n">
         <x:v>1180</x:v>
       </x:c>
-      <x:c r="C17" s="83">
+      <x:c r="C17" s="79">
         <x:v>34552</x:v>
       </x:c>
-      <x:c r="D17" s="83">
+      <x:c r="D17" s="79">
         <x:v>34552</x:v>
       </x:c>
-      <x:c r="E17" s="84" t="s"/>
-      <x:c r="F17" s="84" t="s"/>
-      <x:c r="G17" s="84" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H17" s="85" t="n">
+      <x:c r="E17" s="80" t="s"/>
+      <x:c r="F17" s="80" t="s"/>
+      <x:c r="G17" s="80" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H17" s="81" t="n">
         <x:v>3640</x:v>
       </x:c>
-      <x:c r="I17" s="85" t="n">
+      <x:c r="I17" s="81" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J17" s="85" t="n">
+      <x:c r="J17" s="81" t="n">
         <x:v>3640</x:v>
       </x:c>
     </x:row>
@@ -1552,7 +1555,7 @@
       <x:c r="E18" s="87" t="s"/>
       <x:c r="F18" s="89" t="s"/>
       <x:c r="G18" s="90" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H18" s="91">
         <x:f>Subtotal(9,H15:H17)</x:f>
@@ -1564,105 +1567,105 @@
     </x:row>
     <x:row r="19" spans="1:10" outlineLevel="2">
       <x:c r="A19" s="52" t="s"/>
-      <x:c r="B19" s="82" t="n">
+      <x:c r="B19" s="78" t="n">
         <x:v>1105</x:v>
       </x:c>
-      <x:c r="C19" s="83">
+      <x:c r="C19" s="79">
         <x:v>33806</x:v>
       </x:c>
-      <x:c r="D19" s="83">
+      <x:c r="D19" s="79">
         <x:v>33806</x:v>
       </x:c>
-      <x:c r="E19" s="84" t="s"/>
-      <x:c r="F19" s="84" t="s"/>
-      <x:c r="G19" s="84" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H19" s="85" t="n">
+      <x:c r="E19" s="80" t="s"/>
+      <x:c r="F19" s="80" t="s"/>
+      <x:c r="G19" s="80" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H19" s="81" t="n">
         <x:v>31219.95</x:v>
       </x:c>
-      <x:c r="I19" s="85" t="n">
+      <x:c r="I19" s="81" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J19" s="85" t="n">
+      <x:c r="J19" s="81" t="n">
         <x:v>31219.95</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" outlineLevel="2">
       <x:c r="A20" s="52" t="s"/>
-      <x:c r="B20" s="82" t="n">
+      <x:c r="B20" s="78" t="n">
         <x:v>1266</x:v>
       </x:c>
-      <x:c r="C20" s="83">
+      <x:c r="C20" s="79">
         <x:v>34683</x:v>
       </x:c>
-      <x:c r="D20" s="83">
+      <x:c r="D20" s="79">
         <x:v>34683</x:v>
       </x:c>
-      <x:c r="E20" s="84" t="s"/>
-      <x:c r="F20" s="84" t="s"/>
-      <x:c r="G20" s="84" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H20" s="85" t="n">
+      <x:c r="E20" s="80" t="s"/>
+      <x:c r="F20" s="80" t="s"/>
+      <x:c r="G20" s="80" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H20" s="81" t="n">
         <x:v>6935</x:v>
       </x:c>
-      <x:c r="I20" s="85" t="n">
+      <x:c r="I20" s="81" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J20" s="85" t="n">
+      <x:c r="J20" s="81" t="n">
         <x:v>6935</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:10" outlineLevel="2">
       <x:c r="A21" s="52" t="s"/>
-      <x:c r="B21" s="82" t="n">
+      <x:c r="B21" s="78" t="n">
         <x:v>1005</x:v>
       </x:c>
-      <x:c r="C21" s="83">
+      <x:c r="C21" s="79">
         <x:v>32253</x:v>
       </x:c>
-      <x:c r="D21" s="83">
+      <x:c r="D21" s="79">
         <x:v>32163</x:v>
       </x:c>
-      <x:c r="E21" s="84" t="s"/>
-      <x:c r="F21" s="84" t="s"/>
-      <x:c r="G21" s="84" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H21" s="85" t="n">
+      <x:c r="E21" s="80" t="s"/>
+      <x:c r="F21" s="80" t="s"/>
+      <x:c r="G21" s="80" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H21" s="81" t="n">
         <x:v>4807</x:v>
       </x:c>
-      <x:c r="I21" s="85" t="n">
+      <x:c r="I21" s="81" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J21" s="85" t="n">
+      <x:c r="J21" s="81" t="n">
         <x:v>4807</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:10" outlineLevel="2">
       <x:c r="A22" s="52" t="s"/>
-      <x:c r="B22" s="82" t="n">
+      <x:c r="B22" s="78" t="n">
         <x:v>1305</x:v>
       </x:c>
-      <x:c r="C22" s="83">
+      <x:c r="C22" s="79">
         <x:v>34719</x:v>
       </x:c>
-      <x:c r="D22" s="83">
+      <x:c r="D22" s="79">
         <x:v>34719</x:v>
       </x:c>
-      <x:c r="E22" s="84" t="s"/>
-      <x:c r="F22" s="84" t="s"/>
-      <x:c r="G22" s="84" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H22" s="85" t="n">
+      <x:c r="E22" s="80" t="s"/>
+      <x:c r="F22" s="80" t="s"/>
+      <x:c r="G22" s="80" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H22" s="81" t="n">
         <x:v>3065</x:v>
       </x:c>
-      <x:c r="I22" s="85" t="n">
+      <x:c r="I22" s="81" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="J22" s="85" t="n">
+      <x:c r="J22" s="81" t="n">
         <x:v>3065</x:v>
       </x:c>
     </x:row>
@@ -1674,7 +1677,7 @@
       <x:c r="E23" s="87" t="s"/>
       <x:c r="F23" s="89" t="s"/>
       <x:c r="G23" s="90" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H23" s="91">
         <x:f>Subtotal(9,H19:H22)</x:f>
@@ -1687,7 +1690,7 @@
     <x:row r="24" spans="1:10">
       <x:c r="A24" s="52" t="s"/>
       <x:c r="B24" s="86" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C24" s="87" t="s"/>
       <x:c r="D24" s="88" t="s"/>
@@ -1705,35 +1708,36 @@
     <x:row r="25" spans="1:10">
       <x:c r="A25" s="52" t="s"/>
       <x:c r="B25" s="52" t="s"/>
-      <x:c r="C25" s="78" t="s"/>
+      <x:c r="C25" s="82" t="s"/>
       <x:c r="D25" s="52" t="s"/>
       <x:c r="E25" s="52" t="s"/>
       <x:c r="F25" s="52" t="s"/>
       <x:c r="G25" s="58" t="s"/>
       <x:c r="H25" s="52" t="s"/>
       <x:c r="I25" s="52" t="s"/>
-      <x:c r="J25" s="79" t="s"/>
+      <x:c r="J25" s="83" t="s"/>
     </x:row>
     <x:row r="26" spans="1:10">
       <x:c r="A26" s="52" t="s"/>
       <x:c r="B26" s="59" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E26" s="59" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:10">
       <x:c r="A27" s="52" t="s"/>
-      <x:c r="B27" s="80" t="s">
-        <x:v>32</x:v>
+      <x:c r="B27" s="84" t="s">
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C27" s="66" t="s"/>
       <x:c r="D27" s="66" t="s"/>
-      <x:c r="E27" s="80" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F27" s="81" t="s"/>
+      <x:c r="E27" s="84" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F27" s="85" t="s"/>
+      <x:c r="J27" s="52" t="s"/>
     </x:row>
     <x:row r="28" spans="1:10">
       <x:c r="G28" s="52" t="s"/>

--- a/tests/Gauges/GroupTagTests_Simple_WithOutsideLink.xlsx
+++ b/tests/Gauges/GroupTagTests_Simple_WithOutsideLink.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <x:fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView xWindow="600" yWindow="615" windowWidth="15480" windowHeight="11460" firstSheet="0" activeTab="0"/>
@@ -14,7 +14,7 @@
     <x:definedName name="OrdersRange2">Sheet1!#REF!</x:definedName>
     <x:definedName name="Orders_tpl">Sheet1!$A$12:$J$24</x:definedName>
   </x:definedNames>
-  <x:calcPr calcId="125725"/>
+  <x:calcPr calcId="145621"/>
 </x:workbook>
 </file>
 
@@ -133,12 +133,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="2">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:numFmts count="1">
     <x:numFmt numFmtId="164" formatCode="mm/dd/yy"/>
-    <x:numFmt numFmtId="165" formatCode="mmm\-yy"/>
   </x:numFmts>
-  <x:fonts count="15">
+  <x:fonts count="15" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="8"/>
       <x:name val="Arial"/>
@@ -395,7 +394,7 @@
     <x:xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="11" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="17" fontId="11" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="13" fillId="2" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -428,7 +427,7 @@
     <x:xf numFmtId="4" fontId="12" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="17" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -509,10 +508,10 @@
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="17" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <x:xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -615,7 +614,7 @@
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="17" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -671,7 +670,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -689,7 +688,7 @@
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
-    <x:cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
   <x:dxfs count="1">
     <x:dxf>
@@ -770,6 +769,11 @@
       <x:color rgb="FF9F7CFF"/>
     </x:mruColors>
   </x:colors>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </x:ext>
+  </x:extLst>
 </x:styleSheet>
 </file>
 
@@ -778,11 +782,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1699260" cy="609600"/>
+    <xdr:ext cx="1695450" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Рисунок 2"/>
@@ -799,7 +803,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1699260" cy="609600"/>
+          <a:ext cx="1695450" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
       </xdr:spPr>
@@ -1156,7 +1160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr codeName="Sheet1">
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
     <x:pageSetUpPr fitToPage="1"/>
@@ -1165,11 +1169,11 @@
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <x:pane xSplit="0" ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozenSplit"/>
-      <x:selection activeCell="D7" sqref="D7"/>
-      <x:selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <x:selection activeCell="G12" sqref="G12"/>
+      <x:selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="2"/>
+  <x:sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
   <x:cols>
     <x:col min="1" max="1" width="2.832031" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9" style="0" customWidth="1"/>
@@ -1183,7 +1187,7 @@
     <x:col min="10" max="10" width="11.5" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:10" customFormat="1" ht="51" customHeight="1">
+    <x:row r="1" spans="1:10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="B1" s="52" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1196,7 +1200,7 @@
       <x:c r="I1" s="53" t="s"/>
       <x:c r="J1" s="53" t="s"/>
     </x:row>
-    <x:row r="2" spans="1:10" customFormat="1" ht="12.75" customHeight="1">
+    <x:row r="2" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="B2" s="54" t="s"/>
       <x:c r="C2" s="54" t="s"/>
       <x:c r="D2" s="54" t="s"/>
@@ -1206,7 +1210,7 @@
       <x:c r="H2" s="54" t="s"/>
       <x:c r="I2" s="54" t="s"/>
     </x:row>
-    <x:row r="3" spans="1:10" customFormat="1" ht="18" customHeight="1">
+    <x:row r="3" spans="1:10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="A3" s="55" t="s"/>
       <x:c r="B3" s="56" t="s">
         <x:v>1</x:v>
@@ -1222,16 +1226,16 @@
       <x:c r="I3" s="14" t="s"/>
       <x:c r="J3" s="15" t="s"/>
     </x:row>
-    <x:row r="4" spans="1:10">
+    <x:row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <x:c r="B4" s="57" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:10">
+    <x:row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <x:c r="B5" s="56" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:10" customFormat="1" ht="12" customHeight="1">
-      <x:c r="B6" s="38" t="s">
+    <x:row r="6" spans="1:10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <x:c r="B6" s="38">
         <x:f>"632-1 Third Frydenhoj"&amp;" "&amp;""</x:f>
       </x:c>
       <x:c r="C6" s="10" t="s"/>
@@ -1243,14 +1247,14 @@
       <x:c r="I6" s="12" t="s"/>
       <x:c r="J6" s="13" t="s"/>
     </x:row>
-    <x:row r="7" spans="1:10" customFormat="1" ht="12" customHeight="1">
+    <x:row r="7" spans="1:10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="D7" s="59" t="s"/>
       <x:c r="E7" s="59" t="s"/>
       <x:c r="F7" s="59" t="s"/>
       <x:c r="G7" s="59" t="s"/>
       <x:c r="H7" s="60" t="s"/>
     </x:row>
-    <x:row r="8" spans="1:10">
+    <x:row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <x:c r="B8" s="56" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -1264,7 +1268,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:10" customFormat="1" ht="12" customHeight="1">
+    <x:row r="9" spans="1:10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="B9" s="41" t="s">
         <x:v>8</x:v>
       </x:c>
@@ -1283,11 +1287,11 @@
       </x:c>
       <x:c r="J9" s="61" t="s"/>
     </x:row>
-    <x:row r="10" spans="1:10" customFormat="1" ht="12" customHeight="1">
+    <x:row r="10" spans="1:10" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="B10" s="56" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C10" s="62" t="str">
+      <x:c r="C10" s="62">
         <x:f>J24</x:f>
       </x:c>
       <x:c r="D10" s="59" t="s"/>
@@ -1298,7 +1302,7 @@
       <x:c r="I10" s="63" t="s"/>
       <x:c r="J10" s="59" t="s"/>
     </x:row>
-    <x:row r="11" spans="1:10" customFormat="1" ht="22.5" customHeight="1">
+    <x:row r="11" spans="1:10" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <x:c r="B11" s="64" t="s">
         <x:v>13</x:v>
       </x:c>
@@ -1327,7 +1331,7 @@
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:10" outlineLevel="2">
+    <x:row r="12" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <x:c r="B12" s="68" t="n">
         <x:v>1072</x:v>
       </x:c>
@@ -1352,7 +1356,7 @@
         <x:v>3596</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:10" outlineLevel="2">
+    <x:row r="13" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <x:c r="B13" s="68" t="n">
         <x:v>1059</x:v>
       </x:c>
@@ -1381,7 +1385,7 @@
         <x:v>2150</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:10" outlineLevel="1">
+    <x:row r="14" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <x:c r="B14" s="72" t="s"/>
       <x:c r="C14" s="73" t="s"/>
       <x:c r="D14" s="74" t="s"/>
@@ -1398,7 +1402,7 @@
         <x:f>Subtotal(9,J12:J13)</x:f>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:10" outlineLevel="2">
+    <x:row r="15" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <x:c r="B15" s="68" t="n">
         <x:v>1280</x:v>
       </x:c>
@@ -1423,7 +1427,7 @@
         <x:v>4317.75</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:10" customFormat="1" ht="12" customHeight="1" outlineLevel="2">
+    <x:row r="16" spans="1:10" customFormat="1" ht="12" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <x:c r="B16" s="68" t="n">
         <x:v>1080</x:v>
       </x:c>
@@ -1448,7 +1452,7 @@
         <x:v>9634</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:10" outlineLevel="2">
+    <x:row r="17" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.2">
       <x:c r="B17" s="68" t="n">
         <x:v>1180</x:v>
       </x:c>
